--- a/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí6.xlsx
+++ b/AH_ACOGIDA INTEGRAL CONTINGENCIA_1hoja_Recibí6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ACC7150-0619-46C0-8832-F09B113E9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC949F-7E4C-4D92-A6E1-0E32CD6C6D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -434,6 +434,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -714,12 +720,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -803,6 +803,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,14 +1211,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:S7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="4.69921875" customWidth="1"/>
     <col min="4" max="4" width="1.09765625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -1256,158 +1262,158 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -1432,19 +1438,19 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,7 +1627,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -1644,27 +1650,27 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1716,31 +1722,31 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="45" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="45" t="s">
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,78 +1870,78 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58">
         <f>SUM(P22:P26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" ht="68" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.35">
